--- a/database/industries/folad/fakhouz/cost/yearly.xlsx
+++ b/database/industries/folad/fakhouz/cost/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\folad\fakhouz\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\fakhouz\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9D8914-EDA6-4500-8909-577CCEA6EEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -210,7 +211,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,7 +381,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -392,7 +393,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -439,6 +440,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -474,6 +492,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -625,17 +660,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -650,7 +685,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -667,7 +702,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -684,7 +719,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -699,7 +734,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -716,7 +751,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -733,7 +768,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -748,7 +783,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -785,7 +820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -800,7 +835,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -837,7 +872,7 @@
         <v>252931286</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -874,7 +909,7 @@
         <v>5889188</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
@@ -911,7 +946,7 @@
         <v>98415585</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>18</v>
       </c>
@@ -948,7 +983,7 @@
         <v>357236059</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
@@ -985,7 +1020,7 @@
         <v>-4074725</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -1022,7 +1057,7 @@
         <v>353161334</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
@@ -1059,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -1096,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
@@ -1133,7 +1168,7 @@
         <v>353161334</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1170,7 +1205,7 @@
         <v>16534562</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>25</v>
       </c>
@@ -1207,7 +1242,7 @@
         <v>-31945780</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>26</v>
       </c>
@@ -1244,7 +1279,7 @@
         <v>337750116</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>27</v>
       </c>
@@ -1281,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>28</v>
       </c>
@@ -1318,7 +1353,7 @@
         <v>337750116</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1333,7 +1368,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1348,7 +1383,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1363,7 +1398,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>29</v>
       </c>
@@ -1400,7 +1435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1415,7 +1450,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>30</v>
       </c>
@@ -1454,7 +1489,7 @@
         <v>52093</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1493,7 +1528,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
@@ -1532,7 +1567,7 @@
         <v>14789</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>34</v>
       </c>
@@ -1571,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>35</v>
       </c>
@@ -1610,7 +1645,7 @@
         <v>5350</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>36</v>
       </c>
@@ -1649,7 +1684,7 @@
         <v>18347</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>37</v>
       </c>
@@ -1688,7 +1723,7 @@
         <v>1353823</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>18</v>
       </c>
@@ -1725,7 +1760,7 @@
         <v>1446403</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1740,7 +1775,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1755,7 +1790,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1770,7 +1805,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>38</v>
       </c>
@@ -1807,7 +1842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1822,7 +1857,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>30</v>
       </c>
@@ -1861,7 +1896,7 @@
         <v>97864</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>32</v>
       </c>
@@ -1900,7 +1935,7 @@
         <v>231355</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>33</v>
       </c>
@@ -1939,7 +1974,7 @@
         <v>684997</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>34</v>
       </c>
@@ -1978,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>35</v>
       </c>
@@ -2017,7 +2052,7 @@
         <v>120753</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>36</v>
       </c>
@@ -2056,7 +2091,7 @@
         <v>31759</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>37</v>
       </c>
@@ -2095,7 +2130,7 @@
         <v>5533553</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>18</v>
       </c>
@@ -2132,7 +2167,7 @@
         <v>6700281</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2147,7 +2182,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2162,7 +2197,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2177,7 +2212,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>39</v>
       </c>
@@ -2214,7 +2249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2229,7 +2264,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>30</v>
       </c>
@@ -2268,7 +2303,7 @@
         <v>149957</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>32</v>
       </c>
@@ -2307,7 +2342,7 @@
         <v>214915</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>33</v>
       </c>
@@ -2346,7 +2381,7 @@
         <v>682326</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>34</v>
       </c>
@@ -2385,7 +2420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>35</v>
       </c>
@@ -2424,7 +2459,7 @@
         <v>108438</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>36</v>
       </c>
@@ -2463,7 +2498,7 @@
         <v>38805</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>37</v>
       </c>
@@ -2502,7 +2537,7 @@
         <v>5113324</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>18</v>
       </c>
@@ -2539,7 +2574,7 @@
         <v>6307766</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2554,7 +2589,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2569,7 +2604,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2584,7 +2619,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>40</v>
       </c>
@@ -2621,7 +2656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2636,7 +2671,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>30</v>
       </c>
@@ -2675,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>32</v>
       </c>
@@ -2714,7 +2749,7 @@
         <v>18440</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>33</v>
       </c>
@@ -2753,7 +2788,7 @@
         <v>17460</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>34</v>
       </c>
@@ -2792,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>35</v>
       </c>
@@ -2831,7 +2866,7 @@
         <v>17665</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>36</v>
       </c>
@@ -2870,7 +2905,7 @@
         <v>11301</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>37</v>
       </c>
@@ -2909,7 +2944,7 @@
         <v>1774052</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>18</v>
       </c>
@@ -2946,7 +2981,7 @@
         <v>1838918</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2961,7 +2996,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2976,7 +3011,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2991,7 +3026,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>41</v>
       </c>
@@ -3028,7 +3063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3043,7 +3078,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>30</v>
       </c>
@@ -3082,7 +3117,7 @@
         <v>1506790</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>32</v>
       </c>
@@ -3121,7 +3156,7 @@
         <v>171643</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>33</v>
       </c>
@@ -3160,7 +3195,7 @@
         <v>957275</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>34</v>
       </c>
@@ -3199,7 +3234,7 @@
         <v>400388</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>35</v>
       </c>
@@ -3238,7 +3273,7 @@
         <v>774092</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>36</v>
       </c>
@@ -3277,7 +3312,7 @@
         <v>4596944</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>37</v>
       </c>
@@ -3316,7 +3351,7 @@
         <v>29063747</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>18</v>
       </c>
@@ -3353,7 +3388,7 @@
         <v>37470879</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3368,7 +3403,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3383,7 +3418,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3398,7 +3433,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>43</v>
       </c>
@@ -3435,7 +3470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3450,7 +3485,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>30</v>
       </c>
@@ -3489,7 +3524,7 @@
         <v>5471816</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>32</v>
       </c>
@@ -3528,7 +3563,7 @@
         <v>23360393</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>33</v>
       </c>
@@ -3567,7 +3602,7 @@
         <v>58892953</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>34</v>
       </c>
@@ -3606,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>35</v>
       </c>
@@ -3645,7 +3680,7 @@
         <v>7230701</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>36</v>
       </c>
@@ -3684,7 +3719,7 @@
         <v>13532639</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>37</v>
       </c>
@@ -3723,7 +3758,7 @@
         <v>174886102</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>18</v>
       </c>
@@ -3760,7 +3795,7 @@
         <v>283374604</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3775,7 +3810,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3790,7 +3825,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3805,7 +3840,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>44</v>
       </c>
@@ -3842,7 +3877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3857,7 +3892,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>30</v>
       </c>
@@ -3896,7 +3931,7 @@
         <v>6978606</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>32</v>
       </c>
@@ -3935,7 +3970,7 @@
         <v>21670276</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>33</v>
       </c>
@@ -3974,7 +4009,7 @@
         <v>58319190</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>34</v>
       </c>
@@ -4013,7 +4048,7 @@
         <v>400388</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>35</v>
       </c>
@@ -4052,7 +4087,7 @@
         <v>6212943</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>36</v>
       </c>
@@ -4091,7 +4126,7 @@
         <v>12484892</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>37</v>
       </c>
@@ -4130,7 +4165,7 @@
         <v>146864991</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>18</v>
       </c>
@@ -4167,7 +4202,7 @@
         <v>252931286</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4182,7 +4217,7 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4197,7 +4232,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4212,7 +4247,7 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>45</v>
       </c>
@@ -4249,7 +4284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4264,7 +4299,7 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>30</v>
       </c>
@@ -4303,7 +4338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>32</v>
       </c>
@@ -4342,7 +4377,7 @@
         <v>1861760</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>33</v>
       </c>
@@ -4381,7 +4416,7 @@
         <v>1531038</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>34</v>
       </c>
@@ -4420,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>35</v>
       </c>
@@ -4459,7 +4494,7 @@
         <v>1791850</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>36</v>
       </c>
@@ -4498,7 +4533,7 @@
         <v>5644691</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>37</v>
       </c>
@@ -4537,7 +4572,7 @@
         <v>57084858</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="12" t="s">
         <v>18</v>
       </c>
@@ -4574,7 +4609,7 @@
         <v>67914197</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4589,7 +4624,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4604,7 +4639,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4619,7 +4654,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>46</v>
       </c>
@@ -4656,7 +4691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4671,7 +4706,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>30</v>
       </c>
@@ -4710,7 +4745,7 @@
         <v>28925000</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>32</v>
       </c>
@@ -4749,7 +4784,7 @@
         <v>85821500</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>33</v>
       </c>
@@ -4788,7 +4823,7 @@
         <v>64728853</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>34</v>
       </c>
@@ -4827,7 +4862,7 @@
         <v>400388000000</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>35</v>
       </c>
@@ -4866,7 +4901,7 @@
         <v>144690093</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>36</v>
       </c>
@@ -4905,7 +4940,7 @@
         <v>250555622</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>37</v>
       </c>
@@ -4944,7 +4979,7 @@
         <v>21467908</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -4959,7 +4994,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -4974,7 +5009,7 @@
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -4989,7 +5024,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B143" s="7" t="s">
         <v>48</v>
       </c>
@@ -5026,7 +5061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -5041,7 +5076,7 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>30</v>
       </c>
@@ -5080,7 +5115,7 @@
         <v>55912450</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>32</v>
       </c>
@@ -5119,7 +5154,7 @@
         <v>100972069</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>33</v>
       </c>
@@ -5158,7 +5193,7 @@
         <v>85975490</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>35</v>
       </c>
@@ -5197,7 +5232,7 @@
         <v>59880094</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>36</v>
       </c>
@@ -5236,7 +5271,7 @@
         <v>426104065</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>37</v>
       </c>
@@ -5275,7 +5310,7 @@
         <v>31604667</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -5290,7 +5325,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5305,7 +5340,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -5320,7 +5355,7 @@
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B154" s="7" t="s">
         <v>49</v>
       </c>
@@ -5357,7 +5392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -5372,7 +5407,7 @@
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
         <v>30</v>
       </c>
@@ -5411,7 +5446,7 @@
         <v>46537381</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="s">
         <v>32</v>
       </c>
@@ -5450,7 +5485,7 @@
         <v>100831845</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="8" t="s">
         <v>33</v>
       </c>
@@ -5489,7 +5524,7 @@
         <v>85471153</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="10" t="s">
         <v>34</v>
       </c>
@@ -5528,7 +5563,7 @@
         <v>400388000000</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="8" t="s">
         <v>35</v>
       </c>
@@ -5567,7 +5602,7 @@
         <v>57294887</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="10" t="s">
         <v>36</v>
       </c>
@@ -5606,7 +5641,7 @@
         <v>321734106</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="8" t="s">
         <v>37</v>
       </c>
@@ -5645,7 +5680,7 @@
         <v>28722019</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -5660,7 +5695,7 @@
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -5675,7 +5710,7 @@
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -5690,7 +5725,7 @@
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
     </row>
-    <row r="166" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B166" s="7" t="s">
         <v>50</v>
       </c>
@@ -5727,7 +5762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -5742,7 +5777,7 @@
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="8" t="s">
         <v>30</v>
       </c>
@@ -5781,7 +5816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="10" t="s">
         <v>32</v>
       </c>
@@ -5820,7 +5855,7 @@
         <v>100963124</v>
       </c>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="8" t="s">
         <v>33</v>
       </c>
@@ -5859,7 +5894,7 @@
         <v>87688316</v>
       </c>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="10" t="s">
         <v>35</v>
       </c>
@@ -5898,7 +5933,7 @@
         <v>101435041</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="8" t="s">
         <v>36</v>
       </c>
@@ -5937,7 +5972,7 @@
         <v>499485975</v>
       </c>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="10" t="s">
         <v>37</v>
       </c>
@@ -5976,7 +6011,7 @@
         <v>32177669</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -5991,7 +6026,7 @@
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -6006,7 +6041,7 @@
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -6021,7 +6056,7 @@
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
     </row>
-    <row r="177" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B177" s="7" t="s">
         <v>51</v>
       </c>
@@ -6058,7 +6093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -6073,7 +6108,7 @@
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>52</v>
       </c>
@@ -6110,7 +6145,7 @@
         <v>3902096</v>
       </c>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>53</v>
       </c>
@@ -6147,7 +6182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>54</v>
       </c>
@@ -6184,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>55</v>
       </c>
@@ -6221,7 +6256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>56</v>
       </c>
@@ -6258,7 +6293,7 @@
         <v>19671949</v>
       </c>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>57</v>
       </c>
@@ -6295,7 +6330,7 @@
         <v>39414916</v>
       </c>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>58</v>
       </c>
@@ -6332,7 +6367,7 @@
         <v>2131656</v>
       </c>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>59</v>
       </c>
@@ -6369,7 +6404,7 @@
         <v>17704958</v>
       </c>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="8" t="s">
         <v>60</v>
       </c>
@@ -6406,7 +6441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
         <v>61</v>
       </c>
@@ -6443,7 +6478,7 @@
         <v>15590010</v>
       </c>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="14" t="s">
         <v>18</v>
       </c>

--- a/database/industries/folad/fakhouz/cost/yearly.xlsx
+++ b/database/industries/folad/fakhouz/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AD1E31-CEA2-49C8-9026-EB46E8DE51EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0213FD7F-5BA1-4689-AC74-81F26FF2EC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -650,12 +650,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -665,7 +665,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -677,7 +677,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -689,7 +689,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -699,7 +699,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -711,7 +711,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -733,7 +733,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -755,7 +755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -765,7 +765,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -787,7 +787,7 @@
         <v>252931286</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -809,7 +809,7 @@
         <v>5889188</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -831,7 +831,7 @@
         <v>98415585</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
@@ -853,7 +853,7 @@
         <v>357236059</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -875,7 +875,7 @@
         <v>-4074725</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
@@ -897,7 +897,7 @@
         <v>353161334</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
@@ -963,7 +963,7 @@
         <v>353161334</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -985,7 +985,7 @@
         <v>16534562</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>-31945780</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>337750116</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>337750116</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1083,7 +1083,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1093,7 +1093,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1103,7 +1103,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1135,7 +1135,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>52093</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>14789</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>29</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>30</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>5350</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>31</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>18347</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>32</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>1353823</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>12</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>1446403</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1335,7 +1335,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1345,7 +1345,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1355,7 +1355,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>33</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1387,7 +1387,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>24</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>97864</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>27</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>231355</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>28</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>684997</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>29</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>30</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>120753</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>31</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>31759</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>32</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>5533553</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>12</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>6700281</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1587,7 +1587,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1597,7 +1597,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1607,7 +1607,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>34</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1639,7 +1639,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>24</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>149957</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>27</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>214915</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>28</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>682326</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>29</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>30</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>108438</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>31</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>38805</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>32</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>5113324</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>12</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>6307766</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1839,7 +1839,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1849,7 +1849,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1859,7 +1859,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>35</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1891,7 +1891,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>24</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>27</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>18440</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>28</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>17460</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>29</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>30</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>17665</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>31</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>11301</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>32</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>1774052</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>12</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>1838918</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2091,7 +2091,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2101,7 +2101,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2111,7 +2111,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>36</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2143,7 +2143,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>24</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>1506790</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>27</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>171643</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>28</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>957275</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>29</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>400388</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>30</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>774092</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>31</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>4596944</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>32</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>29063747</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>12</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>37470879</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2343,7 +2343,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2353,7 +2353,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2363,7 +2363,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>38</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2395,7 +2395,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>24</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>5471816</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>27</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>23360393</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>28</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>58892953</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>29</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>30</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>7230701</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>31</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>13532639</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>32</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>174886102</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>12</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>283374604</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2595,7 +2595,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2605,7 +2605,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2615,7 +2615,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>39</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2647,7 +2647,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>24</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>6978606</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>27</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>21670276</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>28</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>58319190</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>29</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>400388</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>30</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>6212943</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>31</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>12484892</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>32</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>146864991</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>12</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>252931286</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2847,7 +2847,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2857,7 +2857,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2867,7 +2867,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>40</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -2899,7 +2899,7 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>24</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>27</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>1861760</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>28</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>1531038</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>29</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>30</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>1791850</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>31</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>5644691</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>32</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>57084858</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="12" t="s">
         <v>12</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>67914197</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3099,7 +3099,7 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3109,7 +3109,7 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3119,7 +3119,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>41</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3151,7 +3151,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>24</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>28925000</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>27</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>85821500</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>28</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>64728853</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>29</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>400388000000</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>30</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>144690093</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>31</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>250555622</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>32</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>21467908</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3329,7 +3329,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3339,7 +3339,7 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3349,7 +3349,7 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B143" s="7" t="s">
         <v>43</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3381,7 +3381,7 @@
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>24</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>55912450</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>27</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>100972069</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>28</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>85975490</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>30</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>59880094</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>31</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>426104065</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>32</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>31604667</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3535,7 +3535,7 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3545,7 +3545,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3555,7 +3555,7 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B154" s="7" t="s">
         <v>44</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -3587,7 +3587,7 @@
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
         <v>24</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>46537381</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="s">
         <v>27</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>100831845</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="8" t="s">
         <v>28</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>85471153</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="10" t="s">
         <v>29</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>400388000000</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="8" t="s">
         <v>30</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>57294887</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="10" t="s">
         <v>31</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>321734106</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="8" t="s">
         <v>32</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>28722019</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -3765,7 +3765,7 @@
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -3775,7 +3775,7 @@
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -3785,7 +3785,7 @@
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B166" s="7" t="s">
         <v>45</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -3817,7 +3817,7 @@
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B168" s="8" t="s">
         <v>24</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B169" s="10" t="s">
         <v>27</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>100963124</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B170" s="8" t="s">
         <v>28</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>87688316</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" s="10" t="s">
         <v>30</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>101435041</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" s="8" t="s">
         <v>31</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>499485975</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B173" s="10" t="s">
         <v>32</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>32177669</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -3971,7 +3971,7 @@
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -3981,7 +3981,7 @@
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -3991,7 +3991,7 @@
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B177" s="7" t="s">
         <v>46</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4023,7 +4023,7 @@
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>47</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>3902096</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>48</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>49</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>50</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>51</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>19671949</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>52</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>39414916</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>53</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>2131656</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>54</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>17704958</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B187" s="8" t="s">
         <v>55</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
         <v>56</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>15590010</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B189" s="14" t="s">
         <v>12</v>
       </c>
